--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3974202.638674841</v>
+        <v>3971638.369525084</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205919</v>
+        <v>9964927.035287935</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431051</v>
+        <v>430763.7823717215</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451455.298339725</v>
+        <v>7451601.610615645</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>271.5498821066794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>76.80462337977846</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143521</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.699381515088</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.98563940342678</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>56.31000234217397</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>9.43427371450322</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.5541093828361</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>122.9320997728195</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.43427371450322</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>33.97895442578993</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440903</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.5541093828361</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6267707433221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H26" t="n">
         <v>283.5630920045443</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>163.9799307662881</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>227.4416075558329</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.53032011471358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>4.467215483528722</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>26.36085357346062</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>56.22999555758603</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>409.8432760127576</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081947</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374741</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.3469406895136</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>89.5340822374541</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108342</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
         <v>181.3384883584589</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081947</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374741</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>83.07736723265654</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108342</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
         <v>181.3384883584589</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>210.1774809087085</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.55410938283612</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>81.3725990111956</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.065608924282</v>
+        <v>23.57530571412641</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.192924312011</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1796.424269041897</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.527073573122</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>1346.261374966371</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>960.473122368127</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>549.4872175785194</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>131.5234094767063</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,13 +4589,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
         <v>2388.358616186807</v>
@@ -4607,10 +4607,10 @@
         <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>272.831245977019</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
@@ -5039,28 +5039,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5118,28 +5118,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>142.6767696327857</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>142.6767696327857</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L12" t="n">
-        <v>142.6767696327857</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849133</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284444</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.9550599890988</v>
+        <v>847.854940431237</v>
       </c>
       <c r="C13" t="n">
-        <v>550.8483535209909</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D13" t="n">
-        <v>550.8483535209909</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E13" t="n">
-        <v>402.9352599385978</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F13" t="n">
         <v>402.9352599385978</v>
@@ -5221,28 +5221,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>965.3961039628687</v>
+        <v>1068.647519574767</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.6035248193385</v>
+        <v>847.854940431237</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5294,10 +5294,10 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5318,10 +5318,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.694998646822</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.571473647016</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5413,22 +5413,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5513,10 +5513,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5546,16 +5546,16 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.861033895493</v>
@@ -5592,25 +5592,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5806809953583</v>
+        <v>562.2602880588616</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.599035247486</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.694998646822</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.571473647016</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5732,19 +5732,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5756,22 +5756,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5829,28 +5829,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668117</v>
+        <v>238.7141959544605</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310563</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M21" t="n">
-        <v>1281.571598885108</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N21" t="n">
-        <v>1903.667562284444</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>485.566145539011</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D22" t="n">
-        <v>485.566145539011</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E22" t="n">
-        <v>485.566145539011</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="F22" t="n">
-        <v>485.566145539011</v>
+        <v>210.8014099396868</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
         <v>176.4792337520202</v>
@@ -5975,10 +5975,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5993,22 +5993,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6063,31 +6063,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.75575956269</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.75575956269</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>394.0188770611919</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F25" t="n">
-        <v>394.0188770611919</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>226.8046822357708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6306,25 +6306,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>107.3505653988713</v>
       </c>
       <c r="L27" t="n">
-        <v>562.2602880588616</v>
+        <v>107.3505653988713</v>
       </c>
       <c r="M27" t="n">
-        <v>1154.278642310989</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="N27" t="n">
-        <v>1776.374605710325</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.25108071052</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512.6296115053483</v>
+        <v>554.7738874534192</v>
       </c>
       <c r="C28" t="n">
-        <v>343.6934285774414</v>
+        <v>385.8377045255123</v>
       </c>
       <c r="D28" t="n">
-        <v>343.6934285774414</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="E28" t="n">
-        <v>343.6934285774414</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774414</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2195.916860590874</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>1976.238078305256</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1687.161864619983</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.477376414096</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1143.060206377136</v>
+        <v>1185.204482325206</v>
       </c>
       <c r="X28" t="n">
-        <v>915.0706554791182</v>
+        <v>957.2149314271891</v>
       </c>
       <c r="Y28" t="n">
-        <v>694.278076335588</v>
+        <v>736.4223522836589</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L30" t="n">
-        <v>915.089423558717</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M30" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137216</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.203741210181</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>490.5833760753516</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160681</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6707,7 +6707,7 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
         <v>2971.583449151116</v>
@@ -6774,31 +6774,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2380436180293</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="M33" t="n">
-        <v>965.2563978701578</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269495</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1073.589098669837</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C34" t="n">
-        <v>904.65291574193</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D34" t="n">
-        <v>754.5362763295942</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E34" t="n">
-        <v>606.6231827472011</v>
+        <v>344.979075535267</v>
       </c>
       <c r="F34" t="n">
-        <v>459.7332352492907</v>
+        <v>344.979075535267</v>
       </c>
       <c r="G34" t="n">
-        <v>292.5190404238696</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H34" t="n">
-        <v>150.6463234623</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6889,19 +6889,19 @@
         <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.704181747511</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.019693541624</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1704.019693541624</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.030142643606</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>1255.237563500076</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127626</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160677</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
         <v>373.3442236507206</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384033</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
         <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -6980,7 +6980,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149664</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="L36" t="n">
-        <v>915.0894235587184</v>
+        <v>585.6197135698817</v>
       </c>
       <c r="M36" t="n">
-        <v>915.0894235587184</v>
+        <v>1177.63806782201</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.185386958055</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.061861958251</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P36" t="n">
-        <v>2503.645380384327</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476037</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>383.6341586955697</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D37" t="n">
-        <v>383.6341586955697</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E37" t="n">
         <v>235.7210651131766</v>
@@ -7087,22 +7087,22 @@
         <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411612</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117252</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948598</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.45060813932</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
         <v>1654.146473931027</v>
@@ -7111,34 +7111,34 @@
         <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782262</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335698</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
         <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.38296403313</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747512</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062239</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856352</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819391</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213736</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778434</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7163,34 +7163,34 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160728</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015111</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287891938</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.29390929497</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
         <v>4566.333620403612</v>
@@ -7199,7 +7199,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7214,10 +7214,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149664</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L39" t="n">
-        <v>915.0894235587184</v>
+        <v>729.4465287982083</v>
       </c>
       <c r="M39" t="n">
-        <v>1507.107777810847</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.203741210184</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
         <v>93.84834815160703</v>
@@ -7330,16 +7330,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411612</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117252</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948598</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.45060813932</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
         <v>1654.146473931027</v>
@@ -7348,34 +7348,34 @@
         <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782262</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335698</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
         <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.38296403313</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747512</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X40" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
         <v>1949.298676890959</v>
@@ -7397,64 +7397,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160681</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="L42" t="n">
-        <v>584.5806809953583</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.599035247486</v>
+        <v>1063.776437885087</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.694998646822</v>
+        <v>1552.026157035584</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.902632035779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D43" t="n">
-        <v>241.7614417340001</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556096</v>
+        <v>93.84834815160727</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148063</v>
+        <v>373.3442236507208</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="L45" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="M45" t="n">
-        <v>691.2268357781589</v>
+        <v>1165.062459293464</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.824799332766</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.734529572053</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.357679067121</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.619339442004</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157998</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157998</v>
+        <v>347.1826213652097</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157998</v>
+        <v>200.2926738672993</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306798</v>
+        <v>200.2926738672993</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782909113</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908352</v>
       </c>
       <c r="O35" t="n">
-        <v>51.3126478290817</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782908107</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782908352</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2611816952011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>169.3996530468632</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>25.68337324539281</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440903</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>131.563098451377</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>8.827219048631804</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440903</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>17.35855759217083</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>59.08139078075808</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.3016600672237</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.9667471630405</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.1811993037063</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.57458118682292</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>56.8998804091142</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>56.89988040911507</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440893</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>84.16945386597129</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440893</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>76.00797063971189</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.06136363537624</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.06136363537357</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194186</v>
+        <v>116.8786840778275</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629198.2785498287</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.902690595</v>
       </c>
       <c r="F2" t="n">
         <v>786515.9026905952</v>
       </c>
       <c r="G2" t="n">
-        <v>786515.9026905952</v>
+        <v>786515.9026905954</v>
       </c>
       <c r="H2" t="n">
         <v>786515.9026905952</v>
@@ -26335,25 +26335,25 @@
         <v>786515.9026905951</v>
       </c>
       <c r="J2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786515.902690595</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786515.9026905954</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786515.9026905956</v>
+      </c>
+      <c r="N2" t="n">
         <v>786515.9026905955</v>
       </c>
-      <c r="K2" t="n">
-        <v>786515.9026905954</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.9026905951</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786515.9026905954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786515.9026905954</v>
-      </c>
       <c r="O2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905952</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786515.9026905956</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925941</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.138088009611238e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662943</v>
       </c>
       <c r="F4" t="n">
+        <v>5069.915760662964</v>
+      </c>
+      <c r="G4" t="n">
         <v>5069.915760662978</v>
       </c>
-      <c r="G4" t="n">
-        <v>5069.91576066294</v>
-      </c>
       <c r="H4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662965</v>
       </c>
       <c r="I4" t="n">
         <v>5069.915760662916</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662971</v>
+        <v>5069.915760662847</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662915</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="L4" t="n">
+        <v>5069.915760662817</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5069.915760662785</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5069.91576066282</v>
+      </c>
+      <c r="O4" t="n">
         <v>5069.915760662818</v>
       </c>
-      <c r="M4" t="n">
-        <v>5069.915760662806</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5069.915760662799</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5069.915760662978</v>
-      </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662827</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26491,10 +26491,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572386</v>
@@ -26506,10 +26506,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.82805270722</v>
+        <v>-64517.82805270745</v>
       </c>
       <c r="C6" t="n">
         <v>525450.0511618369</v>
       </c>
       <c r="D6" t="n">
-        <v>525450.0511618369</v>
+        <v>525450.0511618371</v>
       </c>
       <c r="E6" t="n">
-        <v>-255993.7179818182</v>
+        <v>-256029.614963683</v>
       </c>
       <c r="F6" t="n">
-        <v>680515.9474726937</v>
+        <v>680480.0504908296</v>
       </c>
       <c r="G6" t="n">
-        <v>680515.9474726937</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="H6" t="n">
-        <v>680515.9474726939</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="I6" t="n">
-        <v>680515.9474726937</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="J6" t="n">
-        <v>504092.7282801011</v>
+        <v>504056.8312982355</v>
       </c>
       <c r="K6" t="n">
-        <v>680515.947472694</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="L6" t="n">
-        <v>680515.9474726925</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="M6" t="n">
-        <v>556208.7360825569</v>
+        <v>556172.8391006927</v>
       </c>
       <c r="N6" t="n">
-        <v>680515.9474726941</v>
+        <v>680480.0504908297</v>
       </c>
       <c r="O6" t="n">
-        <v>680515.9474726951</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="P6" t="n">
-        <v>674751.542983475</v>
+        <v>680480.0504908297</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26759,10 +26759,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716387</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-7.982978129732447e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>56.20237636345547</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>92.71246049576315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>247.1181493845787</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393724</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837006826</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.991087147248803e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>176.1592645264432</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>367.6453723515856</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
@@ -32087,19 +32087,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>218.5059968446715</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>462.5583779166507</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
@@ -32330,10 +32330,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>284.1705781691605</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>363.1786738963057</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>557.7961431982453</v>
@@ -32573,7 +32573,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
         <v>54.2575834086216</v>
@@ -32783,7 +32783,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32795,13 +32795,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>391.6330708361149</v>
       </c>
       <c r="O24" t="n">
-        <v>394.0223077997508</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
         <v>557.7961431982453</v>
@@ -32810,7 +32810,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S24" t="n">
         <v>54.2575834086216</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>151.4800422544239</v>
       </c>
       <c r="L27" t="n">
-        <v>611.6977534235657</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>346.035213005875</v>
       </c>
       <c r="O30" t="n">
-        <v>571.4938338238237</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,19 +33494,19 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>420.766193382321</v>
+        <v>266.1552026179191</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
@@ -33518,10 +33518,10 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862166</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.9117101112229</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704062</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
         <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830439</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364275</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293321</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.145364522962</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086964</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687534</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148614</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
         <v>342.9428985987167</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540909</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088194</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745733</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927648</v>
+        <v>276.6213234250772</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426214</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982461</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.655485511717</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862167</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
         <v>11.77395965821094</v>
@@ -33810,37 +33810,37 @@
         <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284935</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.520731190089</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640623</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265027</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416879</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465967</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282428</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
         <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860861</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851334</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
         <v>10.4635949655197</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.9117101112229</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704062</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
         <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830439</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364275</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293321</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.145364522962</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086964</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687534</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148614</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
         <v>342.9428985987167</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540909</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088194</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,28 +33977,28 @@
         <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745733</v>
+        <v>446.7255293589065</v>
       </c>
       <c r="M39" t="n">
-        <v>740.132371550431</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927648</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>571.4938338238201</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862167</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
         <v>11.77395965821094</v>
@@ -34047,37 +34047,37 @@
         <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284935</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.520731190089</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640623</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265027</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416879</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465967</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282428</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
         <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860861</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851334</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
         <v>10.4635949655197</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>624.5232465787843</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>344.3187317059969</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>289.323958302397</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>49.32163785977649</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>236.3036602682523</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q14" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>87.16428476133815</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>324.0039981367765</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
@@ -35978,10 +35978,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
         <v>728.287436302058</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>146.3291391948015</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>221.0446399742874</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>423.8217357839151</v>
@@ -36221,7 +36221,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
         <v>728.287436302058</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36443,13 +36443,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>260.2913587527817</v>
       </c>
       <c r="O24" t="n">
-        <v>251.4260633553063</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839151</v>
@@ -36458,7 +36458,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160995</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>13.63860328006488</v>
       </c>
       <c r="L27" t="n">
-        <v>473.1433736436916</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>214.6935009225417</v>
       </c>
       <c r="O30" t="n">
-        <v>428.8975893793793</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>779.6000841311419</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O32" t="n">
         <v>689.7596327870094</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>282.2118136024468</v>
+        <v>127.6008228380449</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
@@ -37166,10 +37166,10 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607208</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380634</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
         <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020594</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263712</v>
+        <v>796.0449487554545</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160913</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134839</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404119</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845846</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946991</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094315</v>
+        <v>145.2796113417439</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798177</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839159</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.67371142569544</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066072</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243785</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
         <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209165</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606364</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
         <v>293.4650856931362</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898018</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380634</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
         <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020594</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263712</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870097</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134839</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404119</v>
+        <v>418.5673812694946</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845846</v>
@@ -37625,25 +37625,25 @@
         <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946991</v>
+        <v>308.1711495790323</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094315</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>428.8975893793756</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066072</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243785</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
         <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209165</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606364</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
         <v>293.4650856931362</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812694955</v>
       </c>
       <c r="R41" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>493.181534495451</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>677.0902038955237</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>157.9822462190637</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
